--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-25.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-25.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STACY\Documents\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE9B75-0129-4584-9748-1C5283559884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478877CC-4952-4AC5-AA90-DEF6F28E7983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 11" sheetId="1" r:id="rId1"/>
+    <sheet name="Firmas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,9 +33,9 @@
   <commentList>
     <comment ref="A15" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
       </text>
     </comment>
@@ -300,21 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +312,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -346,6 +347,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4020BA84-9BDD-43D6-B6F9-BE24AA6DD3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15182850" cy="26022300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="RITA CORTES  CHAVARRIA" id="{B52250F9-65D8-4FFF-930F-65C201CB807F}" userId="S::rita.cortes.chavarria@una.ac.cr::c0e6c229-df6a-45a8-b6e1-f2937c491d41" providerId="AD"/>
@@ -353,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,53 +726,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -717,33 +784,33 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -755,60 +822,60 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="21" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" s="16" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -817,7 +884,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -825,45 +892,45 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -880,4 +947,17 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB6A5ED-0755-4228-9746-34105BC36F25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>